--- a/tut05/output/0401ME13.xlsx
+++ b/tut05/output/0401ME13.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.836734693877551</v>
+        <v>6.84</v>
       </c>
       <c r="C6" t="n">
-        <v>5.886363636363637</v>
+        <v>5.89</v>
       </c>
       <c r="D6" t="n">
-        <v>6.361702127659575</v>
+        <v>6.36</v>
       </c>
       <c r="E6" t="n">
-        <v>7.26530612244898</v>
+        <v>7.27</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.956521739130435</v>
+        <v>6.96</v>
       </c>
       <c r="H6" t="n">
         <v>9.050000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.836734693877551</v>
+        <v>6.84</v>
       </c>
       <c r="C8" t="n">
-        <v>6.387096774193548</v>
+        <v>6.39</v>
       </c>
       <c r="D8" t="n">
-        <v>6.378571428571429</v>
+        <v>6.38</v>
       </c>
       <c r="E8" t="n">
-        <v>6.608465608465608</v>
+        <v>6.61</v>
       </c>
       <c r="F8" t="n">
-        <v>6.48936170212766</v>
+        <v>6.49</v>
       </c>
       <c r="G8" t="n">
-        <v>6.565836298932385</v>
+        <v>6.57</v>
       </c>
       <c r="H8" t="n">
-        <v>6.875389408099688</v>
+        <v>6.88</v>
       </c>
       <c r="I8" t="n">
-        <v>6.933518005540166</v>
+        <v>6.93</v>
       </c>
     </row>
   </sheetData>
